--- a/learningAgents/src/optim_PGM_base/results.xlsx
+++ b/learningAgents/src/optim_PGM_base/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaha\Documents\EquiLearn\optim_PGM_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD42919D-ADD3-4215-9477-E4179C86596A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E0DFBC-B97D-4F34-88BE-48B43EFEE67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,11 +406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,6 +528,156 @@
       <c r="D11"/>
       <c r="E11"/>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/learningAgents/src/optim_PGM_base/results.xlsx
+++ b/learningAgents/src/optim_PGM_base/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaha\Documents\EquiLearn\optim_PGM_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E0DFBC-B97D-4F34-88BE-48B43EFEE67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B05893-4A56-4223-88D1-E4F7236F2CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="133">
   <si>
     <t>ep</t>
   </si>
   <si>
+    <t>costs</t>
+  </si>
+  <si>
     <t>adversary</t>
   </si>
   <si>
@@ -64,7 +67,366 @@
     <t>num_actions</t>
   </si>
   <si>
+    <t>agent_prices</t>
+  </si>
+  <si>
+    <t>adv_prices</t>
+  </si>
+  <si>
+    <t>agent_demand</t>
+  </si>
+  <si>
+    <t>adv_demand</t>
+  </si>
+  <si>
     <t>retruns against strategies</t>
+  </si>
+  <si>
+    <t>[57, 71]</t>
+  </si>
+  <si>
+    <t>high,1684424924-1.00,</t>
+  </si>
+  <si>
+    <t>tensor([51, 51, 48, 48, 48, 48, 51, 48, 54, 51, 45, 48, 51, 48, 48, 51, 48, 48,
+        48, 51, 42, 51, 51, 48,  9])</t>
+  </si>
+  <si>
+    <t>[0.34 0.35 0.46 0.45 0.44 0.47 0.41 0.48 0.03 0.41 0.06 0.46 0.39 0.47
+ 0.45 0.4  0.46 0.46 0.46 0.38 0.02 0.38 0.38 0.27 0.97]</t>
+  </si>
+  <si>
+    <t>1687146279</t>
+  </si>
+  <si>
+    <t>[77.5, 86.75, 92.875, 93.6875, 94.09375, 94.296875, 91.3984375, 95.19921875, 90.349609375, 94.6748046875, 99.83740234375, 94.918701171875, 91.7093505859375, 95.35467529296875, 94.92733764648438, 91.71366882324219, 95.3568344116211, 95.67841720581055, 95.08920860290527, 91.79460430145264, 101.39730215072632, 90.44865107536316, 91.72432553768158, 95.36216276884079, 133.9310813844204]</t>
+  </si>
+  <si>
+    <t>[114.5, 99.25, 96.125, 95.3125, 94.90625, 94.703125, 94.6015625, 99.80078125, 95.650390625, 91.3251953125, 92.16259765625, 94.081298828125, 94.2906494140625, 93.64532470703125, 94.07266235351562, 94.28633117675781, 96.6431655883789, 93.32158279418945, 93.91079139709473, 94.20539569854736, 93.60269784927368, 95.55134892463684, 94.27567446231842, 93.63783723115921, 112.0689186155796]</t>
+  </si>
+  <si>
+    <t>[200.0, 218.5, 224.75, 226.375, 227.1875, 227.59375, 227.796875, 229.3984375, 231.69921875, 234.349609375, 232.6748046875, 228.83740234375, 228.418701171875, 229.7093505859375, 228.85467529296875, 228.42733764648438, 229.7136688232422, 230.3568344116211, 229.17841720581055, 228.58920860290527, 229.79460430145264, 225.89730215072632, 228.44865107536316, 229.72432553768158, 228.8621627688408, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 181.5, 175.25, 173.625, 172.8125, 172.40625, 172.203125, 170.6015625, 168.30078125, 165.650390625, 167.3251953125, 171.16259765625, 171.581298828125, 170.2906494140625, 171.14532470703125, 171.57266235351562, 170.2863311767578, 169.6431655883789, 170.82158279418945, 171.41079139709473, 170.20539569854736, 174.10269784927368, 171.55134892463684, 170.27567446231842, 171.1378372311592, 0]</t>
+  </si>
+  <si>
+    <t>[71, 57]</t>
+  </si>
+  <si>
+    <t>low,1685028503-1.00,</t>
+  </si>
+  <si>
+    <t>tensor([30, 27, 30, 27, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 30, 24, 30,
+        30, 30, 30, 30, 30, 18, 12])</t>
+  </si>
+  <si>
+    <t>[0.74 0.06 0.8  0.05 0.87 0.81 0.84 0.83 0.85 0.84 0.85 0.87 0.84 0.86
+ 0.84 0.85 0.   0.86 0.84 0.85 0.86 0.84 0.84 0.01 1.  ]</t>
+  </si>
+  <si>
+    <t>1687146254</t>
+  </si>
+  <si>
+    <t>[105.5, 103.75, 97.625, 101.3125, 96.40625, 96.953125, 96.4765625, 96.23828125, 96.119140625, 96.0595703125, 96.02978515625, 96.014892578125, 96.0074462890625, 96.00372314453125, 96.00186157226562, 96.00093078613281, 102.0004653930664, 94.5002326965332, 95.2501163482666, 95.6250581741333, 95.81252908706665, 95.90626454353333, 95.95313227176666, 107.97656613588333, 110.98828306794167]</t>
+  </si>
+  <si>
+    <t>[86.5, 91.25, 100.375, 93.6875, 98.59375, 95.046875, 95.5234375, 95.76171875, 95.880859375, 95.9404296875, 95.97021484375, 95.985107421875, 95.9925537109375, 95.99627685546875, 95.99813842773438, 95.99906921386719, 95.9995346069336, 97.4997673034668, 96.7498836517334, 96.3749418258667, 96.18747091293335, 96.09373545646667, 96.04686772823334, 96.02343386411667, 135.01171693205833]</t>
+  </si>
+  <si>
+    <t>[200.0, 190.5, 184.25, 185.625, 181.8125, 182.90625, 181.953125, 181.4765625, 181.23828125, 181.119140625, 181.0595703125, 181.02978515625, 181.014892578125, 181.0074462890625, 181.00372314453125, 181.00186157226562, 181.0009307861328, 178.0004653930664, 179.5002326965332, 180.2501163482666, 180.6250581741333, 180.81252908706665, 180.90626454353333, 180.95313227176666, 174.97656613588333, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 209.5, 215.75, 214.375, 218.1875, 217.09375, 218.046875, 218.5234375, 218.76171875, 218.880859375, 218.9404296875, 218.97021484375, 218.985107421875, 218.9925537109375, 218.99627685546875, 218.99813842773438, 218.9990692138672, 221.9995346069336, 220.4997673034668, 219.7498836517334, 219.3749418258667, 219.18747091293335, 219.09373545646667, 219.04686772823334, 225.02343386411667, 0]</t>
+  </si>
+  <si>
+    <t>guess-0.93,low,1685028503-0.07,</t>
+  </si>
+  <si>
+    <t>tensor([27, 24, 24, 24, 24, 24, 24, 24, 24, 27, 24, 27, 24, 24, 27, 24, 24, 24,
+        24, 27, 27, 27, 24, 24, 12])</t>
+  </si>
+  <si>
+    <t>[0.31 0.64 0.67 0.68 0.65 0.68 0.7  0.71 0.66 0.29 0.72 0.29 0.69 0.66
+ 0.28 0.74 0.77 0.7  0.72 0.22 0.21 0.25 0.8  0.78 1.  ]</t>
+  </si>
+  <si>
+    <t>1687145369</t>
+  </si>
+  <si>
+    <t>[108.5, 117.375, 106.40625, 102.7109375, 103.805859375, 106.83740234375, 104.0383056640625, 105.27105102539062, 104.22745208740236, 103.21234214782714, 105.47949869155883, 101.05653848171232, 106.65489869093895, 104.374989266932, 102.77403217274247, 105.25226668191777, 103.99569196825269, 105.93109495345288, 104.57462489121826, 101.19819493005048, 104.23916246151487, 102.43728560274536, 104.51817358668029, 103.52930878932389, 117.67845787264872]</t>
+  </si>
+  <si>
+    <t>[132, 73.5, 91.625, 107.090625, 115.93203125, 95.641015625, 108.96928710937499, 101.0966552734375, 112.16701232910157, 100.28096832275392, 99.78765785217287, 111.4499793186188, 97.5352609949112, 109.97116089017392, 100.68697020944359, 100.2259678272575, 111.73730390905342, 100.50521470451443, 103.06890504654713, 113.36206505590809, 97.03165502643682, 98.76083753848512, 100.56271439725464, 112.12590512262324, 134.32154212735128]</t>
+  </si>
+  <si>
+    <t>[200.0, 211.75, 189.8125, 182.421875, 184.61171875, 190.6748046875, 185.076611328125, 187.54210205078124, 185.45490417480468, 189.4246842956543, 187.95899738311766, 185.11307696342467, 190.3097973818779, 185.749978533864, 188.54806434548496, 187.50453336383552, 184.99138393650537, 188.86218990690574, 186.14924978243653, 185.39638986010095, 191.47832492302976, 187.87457120549072, 186.0363471733606, 184.05861757864778, 188.35691574529744, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 188.25, 210.1875, 217.578125, 215.38828125, 209.3251953125, 214.923388671875, 212.45789794921876, 214.54509582519532, 210.5753157043457, 212.04100261688234, 214.88692303657533, 209.6902026181221, 214.250021466136, 211.45193565451504, 212.49546663616448, 215.00861606349463, 211.13781009309426, 213.85075021756347, 214.60361013989905, 208.52167507697024, 212.12542879450928, 213.9636528266394, 215.94138242135222, 211.64308425470256, 0]</t>
+  </si>
+  <si>
+    <t>myopic-0.51,guess-0.49,</t>
+  </si>
+  <si>
+    <t>tensor([45, 45, 45, 45, 42, 45, 45, 45, 45, 45, 42, 45, 45, 45, 57, 45, 45, 45,
+        45, 42, 45, 45, 39, 45,  6])</t>
+  </si>
+  <si>
+    <t>[0.63 0.72 0.74 0.8  0.11 0.74 0.77 0.73 0.77 0.77 0.09 0.79 0.78 0.75
+ 0.01 0.8  0.77 0.79 0.78 0.09 0.8  0.81 0.09 0.67 0.76]</t>
+  </si>
+  <si>
+    <t>1687142620</t>
+  </si>
+  <si>
+    <t>[83.5, 95.625, 101.34375, 97.3515625, 95.927734375, 89.85791015625, 92.1549072265625, 90.74447631835938, 90.2696304321289, 93.2020236968994, 94.05855779647828, 89.49341242313386, 92.54041452050208, 90.93781356424094, 78.31825654305518, 96.17580457491056, 90.29607065184322, 90.79097625609427, 89.78679498660097, 95.57755441800876, 89.96556469246576, 92.44705637747825, 96.90165655179314, 88.81447831947528, 131.2123524510372]</t>
+  </si>
+  <si>
+    <t>[132, 118.5, 85.375, 79.65625, 83.6484375, 99.0458984375, 86.51318359375, 88.8450927734375, 101.99920349121093, 84.62816009521484, 87.79797630310055, 101.6814208126068, 86.13001069545749, 88.4595854794979, 101.74844867047668, 72.65686888264119, 92.27569306884743, 86.774251178121, 100.94983271223222, 85.12959551583678, 99.89153143251576, 86.26545707473775, 88.55294362252172, 102.40597484572292, 126.78764754896281]</t>
+  </si>
+  <si>
+    <t>[200.0, 224.25, 235.6875, 227.703125, 218.85546875, 212.7158203125, 217.309814453125, 214.48895263671875, 213.5392608642578, 219.40404739379883, 215.11711559295657, 211.9868248462677, 218.08082904100416, 214.87562712848188, 213.63651308611037, 225.35160914982112, 213.59214130368645, 214.58195251218854, 212.5735899732019, 218.15510883601752, 212.93112938493152, 217.89411275495652, 214.80331310358628, 210.62895663895057, 217.42470490207438, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 175.75, 164.3125, 172.296875, 181.14453125, 187.2841796875, 182.690185546875, 185.51104736328125, 186.4607391357422, 180.59595260620117, 184.88288440704343, 188.0131751537323, 181.91917095899584, 185.12437287151812, 186.36348691388963, 174.64839085017888, 186.40785869631355, 185.41804748781146, 187.4264100267981, 181.84489116398248, 187.06887061506848, 182.10588724504348, 185.19668689641372, 189.37104336104943, 182.57529509792562, 0]</t>
+  </si>
+  <si>
+    <t>staticGuess132-1.00,</t>
+  </si>
+  <si>
+    <t>tensor([6, 6, 6, 6])</t>
+  </si>
+  <si>
+    <t>[1. 1. 1. 1.]</t>
+  </si>
+  <si>
+    <t>1686746596</t>
+  </si>
+  <si>
+    <t>[129.5, 130.125, 121.21875, 118.0671875]</t>
+  </si>
+  <si>
+    <t>[132, 94.5, 108.6125, 139.9328125]</t>
+  </si>
+  <si>
+    <t>[200.0, 201.25, 183.4375, 177.134375, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 198.75, 216.5625, 222.865625, 0]</t>
+  </si>
+  <si>
+    <t>low_1686745564-1.00,</t>
+  </si>
+  <si>
+    <t>tensor([18, 18, 18,  0])</t>
+  </si>
+  <si>
+    <t>1686745704</t>
+  </si>
+  <si>
+    <t>[117.5, 115.75, 114.875, 132.4375]</t>
+  </si>
+  <si>
+    <t>[110.5, 112.25, 113.125, 131.5625]</t>
+  </si>
+  <si>
+    <t>[200.0, 196.5, 194.75, 193.875, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 203.5, 205.25, 206.125, 0]</t>
+  </si>
+  <si>
+    <t>tensor([12, 12, 12,  0])</t>
+  </si>
+  <si>
+    <t>1686745600</t>
+  </si>
+  <si>
+    <t>[123.5, 120.25, 118.625, 129.8125]</t>
+  </si>
+  <si>
+    <t>[110.5, 113.75, 115.375, 134.1875]</t>
+  </si>
+  <si>
+    <t>[200.0, 193.5, 190.25, 188.625, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 206.5, 209.75, 211.375, 0]</t>
+  </si>
+  <si>
+    <t>high_1686745372-1.00,</t>
+  </si>
+  <si>
+    <t>1686745564</t>
+  </si>
+  <si>
+    <t>[110.5, 115.25, 117.625, 136.8125]</t>
+  </si>
+  <si>
+    <t>[129.5, 124.75, 122.375, 127.1875]</t>
+  </si>
+  <si>
+    <t>[200.0, 209.5, 214.25, 216.625, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 190.5, 185.75, 183.375, 0]</t>
+  </si>
+  <si>
+    <t>tensor([27, 27, 27, 27])</t>
+  </si>
+  <si>
+    <t>1686745494</t>
+  </si>
+  <si>
+    <t>[101.5, 108.5, 112.0, 113.75]</t>
+  </si>
+  <si>
+    <t>[129.5, 122.5, 119.0, 123.25]</t>
+  </si>
+  <si>
+    <t>[200.0, 214.0, 221.0, 224.5, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 186.0, 179.0, 175.5, 0]</t>
+  </si>
+  <si>
+    <t>tensor([9, 9, 9, 0])</t>
+  </si>
+  <si>
+    <t>1686745446</t>
+  </si>
+  <si>
+    <t>[119.5, 122.0, 123.25, 132.875]</t>
+  </si>
+  <si>
+    <t>[129.5, 127.0, 125.75, 131.125]</t>
+  </si>
+  <si>
+    <t>[200.0, 205.0, 207.5, 208.75, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 195.0, 192.5, 191.25, 0]</t>
+  </si>
+  <si>
+    <t>tensor([6, 6, 6, 0])</t>
+  </si>
+  <si>
+    <t>1686745372</t>
+  </si>
+  <si>
+    <t>[129.5, 130.125, 121.21875, 124.0671875]</t>
+  </si>
+  <si>
+    <t>tensor([3, 3, 3, 0])</t>
+  </si>
+  <si>
+    <t>1686745362</t>
+  </si>
+  <si>
+    <t>[132.5, 132.375, 123.65625, 123.4015625]</t>
+  </si>
+  <si>
+    <t>[132, 97.5, 110.6375, 140.5984375]</t>
+  </si>
+  <si>
+    <t>[200.0, 199.75, 182.3125, 175.803125, 0]</t>
+  </si>
+  <si>
+    <t>[200.0, 200.25, 217.6875, 224.196875, 0]</t>
+  </si>
+  <si>
+    <t>low_1686742756-1.00,</t>
+  </si>
+  <si>
+    <t>tensor([21, 21, 21,  0])</t>
+  </si>
+  <si>
+    <t>1686742771</t>
+  </si>
+  <si>
+    <t>high_1686742706-1.00,</t>
+  </si>
+  <si>
+    <t>tensor([33, 33, 33,  0])</t>
+  </si>
+  <si>
+    <t>1686742756</t>
+  </si>
+  <si>
+    <t>1686742743</t>
+  </si>
+  <si>
+    <t>high_1686742693-1.00,</t>
+  </si>
+  <si>
+    <t>tensor([9, 9, 9, 9])</t>
+  </si>
+  <si>
+    <t>1686742712</t>
+  </si>
+  <si>
+    <t>1686742706</t>
+  </si>
+  <si>
+    <t>tensor([3, 3, 3, 3])</t>
+  </si>
+  <si>
+    <t>1686742693</t>
+  </si>
+  <si>
+    <t>1686740582</t>
+  </si>
+  <si>
+    <t>1686740420</t>
+  </si>
+  <si>
+    <t>1686739930</t>
+  </si>
+  <si>
+    <t>1686739845</t>
+  </si>
+  <si>
+    <t>1686739675</t>
+  </si>
+  <si>
+    <t>high_1686133233-1.00,</t>
+  </si>
+  <si>
+    <t>tensor([36, 36, 30,  9,  9])</t>
+  </si>
+  <si>
+    <t>[0.99 0.59 0.06 1.   0.03]</t>
+  </si>
+  <si>
+    <t>1686169040</t>
+  </si>
+  <si>
+    <t>rand-1.00,</t>
+  </si>
+  <si>
+    <t>tensor([33, 33, 15, 15,  0])</t>
+  </si>
+  <si>
+    <t>[1. 1. 1. 1. 1.]</t>
+  </si>
+  <si>
+    <t>1686168343</t>
+  </si>
+  <si>
+    <t>tensor([0, 0, 0, 0, 0])</t>
+  </si>
+  <si>
+    <t>1686133322</t>
+  </si>
+  <si>
+    <t>1686133233</t>
+  </si>
+  <si>
+    <t>tensor([3, 3, 3, 3, 3])</t>
+  </si>
+  <si>
+    <t>1686133103</t>
   </si>
 </sst>
 </file>
@@ -91,7 +453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +463,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +494,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,39 +775,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD58"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.08984375" customWidth="1"/>
-    <col min="7" max="7" width="4.36328125" customWidth="1"/>
-    <col min="8" max="8" width="5.54296875" customWidth="1"/>
-    <col min="9" max="9" width="20.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="40.26953125" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="7.6328125" customWidth="1"/>
+    <col min="1" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" customWidth="1"/>
+    <col min="8" max="8" width="4.36328125" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="7.6328125" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="15.1796875" customWidth="1"/>
+    <col min="20" max="20" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -447,7 +821,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -477,206 +851,1412 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1411845</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>123890.69240878</v>
+      </c>
+      <c r="E2">
+        <v>48059.946545342384</v>
+      </c>
+      <c r="F2">
+        <v>135.25236511230469</v>
+      </c>
+      <c r="G2">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1411845</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>56853.535270903791</v>
+      </c>
+      <c r="E3">
+        <v>120147.3482653839</v>
+      </c>
+      <c r="F3">
+        <v>35.565647125244141</v>
+      </c>
+      <c r="G3">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1694215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>71616.289944724631</v>
+      </c>
+      <c r="E4">
+        <v>125037.31475979699</v>
+      </c>
+      <c r="F4">
+        <v>30.94797325134277</v>
+      </c>
+      <c r="G4">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1694215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>110941.01547252139</v>
+      </c>
+      <c r="E5">
+        <v>48879.310503796842</v>
+      </c>
+      <c r="F5">
+        <v>75.103431701660156</v>
+      </c>
+      <c r="G5">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>1591</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4">
+        <v>14234.189865722659</v>
+      </c>
+      <c r="E6" s="4">
+        <v>21458.79576416015</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.280861852137605E-7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>20</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>1714</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4">
+        <v>14728.89453125</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20559.89453125</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.005233836825937E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>20</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>1193</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4">
+        <v>14493.86328125</v>
+      </c>
+      <c r="E8" s="4">
+        <v>21518.86328125</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7.4670293543022126E-5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>20</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>1181</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>22506.23828125</v>
+      </c>
+      <c r="E9" s="4">
+        <v>14071.23828125</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.6391076971776778E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="4">
+        <v>4</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>20</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>2544</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4">
+        <v>22096.5625</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13004.5625</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.588240702403709E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>20</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>2570</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="4">
+        <v>21764.828125</v>
+      </c>
+      <c r="E11" s="4">
+        <v>15201.828125</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7.7096701716072857E-5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>20</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>871</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4">
+        <v>14270.189865722659</v>
+      </c>
+      <c r="E12" s="4">
+        <v>21458.79576416015</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.4526347008068108E-5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>20</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>1172</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4">
+        <v>14120.932541503909</v>
+      </c>
+      <c r="E13" s="4">
+        <v>21991.968127441411</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.0992548747453839E-5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="4">
+        <v>4</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>20</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>785</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="4">
+        <v>12856.23828125</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20211.23828125</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.9231997430324549E-4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3</v>
+      </c>
+      <c r="O14" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>628</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="4">
+        <v>23343.80078125</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12082.80078125</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2.6491950848139822E-4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="4">
+        <v>4</v>
+      </c>
+      <c r="N15" s="4">
+        <v>3</v>
+      </c>
+      <c r="O15" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>949</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="4">
+        <v>22247.86328125</v>
+      </c>
+      <c r="E16" s="4">
+        <v>14898.86328125</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.004587757051922E-4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="4">
+        <v>4</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+      <c r="O16" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>1532</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="4">
+        <v>22166.86328125</v>
+      </c>
+      <c r="E17" s="4">
+        <v>14889.86328125</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.6003574475907949E-6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="4">
+        <v>4</v>
+      </c>
+      <c r="N17" s="4">
+        <v>3</v>
+      </c>
+      <c r="O17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>975</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4">
+        <v>14120.932541503909</v>
+      </c>
+      <c r="E18" s="4">
+        <v>21991.968127441411</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.7866983398562301E-5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="4">
+        <v>4</v>
+      </c>
+      <c r="N18" s="4">
+        <v>3</v>
+      </c>
+      <c r="O18" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>2120</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4">
+        <v>14111.932541503909</v>
+      </c>
+      <c r="E19" s="4">
+        <v>21991.968127441411</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.683827031229157E-5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="4">
+        <v>4</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>1474</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4">
+        <v>14270.189865722659</v>
+      </c>
+      <c r="E20" s="4">
+        <v>21458.79576416015</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5.6721521104918793E-5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="4">
+        <v>4</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3</v>
+      </c>
+      <c r="O20" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>1941</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4">
+        <v>14120.932541503909</v>
+      </c>
+      <c r="E21" s="4">
+        <v>21991.968127441411</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.7269720046897419E-5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="4">
+        <v>4</v>
+      </c>
+      <c r="N21" s="4">
+        <v>3</v>
+      </c>
+      <c r="O21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>1964</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4">
+        <v>14414.63629150391</v>
+      </c>
+      <c r="E22" s="4">
+        <v>20357.17437744141</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.136940409196541E-4</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="4">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>3</v>
+      </c>
+      <c r="O22" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>2421</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4">
+        <v>14287.091115722649</v>
+      </c>
+      <c r="E23" s="4">
+        <v>20913.864514160159</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.8649603741068859E-6</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="4">
+        <v>4</v>
+      </c>
+      <c r="N23" s="4">
+        <v>3</v>
+      </c>
+      <c r="O23" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>1506</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4">
+        <v>14414.63629150391</v>
+      </c>
+      <c r="E24" s="4">
+        <v>20357.17437744141</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1.043282099999487E-4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="4">
+        <v>4</v>
+      </c>
+      <c r="N24" s="4">
+        <v>3</v>
+      </c>
+      <c r="O24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>27515</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="4">
+        <v>30871.3876953125</v>
+      </c>
+      <c r="E25" s="4">
+        <v>14303.8876953125</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.2616748809814449</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" s="4">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>3</v>
+      </c>
+      <c r="O25" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>10649</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="4">
+        <v>20257.14453125</v>
+      </c>
+      <c r="E26" s="4">
+        <v>12262.14453125</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.0170090505853301E-4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="4">
+        <v>5</v>
+      </c>
+      <c r="N26" s="4">
+        <v>3</v>
+      </c>
+      <c r="O26" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>1101</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="4">
+        <v>17104.0595703125</v>
+      </c>
+      <c r="E27" s="4">
+        <v>28304.5595703125</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.4210856409267901E-14</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M27" s="4">
+        <v>5</v>
+      </c>
+      <c r="N27" s="4">
+        <v>3</v>
+      </c>
+      <c r="O27" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>969</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="4">
+        <v>14569.14453125</v>
+      </c>
+      <c r="E28" s="4">
+        <v>28861.14453125</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1.4210856409267901E-14</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M28" s="4">
+        <v>5</v>
+      </c>
+      <c r="N28" s="4">
+        <v>3</v>
+      </c>
+      <c r="O28" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>1332</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="4">
+        <v>16413.48828125</v>
+      </c>
+      <c r="E29" s="4">
+        <v>27714.48828125</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.6945244258058662E-8</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" s="4">
+        <v>5</v>
+      </c>
+      <c r="N29" s="4">
+        <v>3</v>
+      </c>
+      <c r="O29" s="4">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
